--- a/duy/Lookup_table.xlsx
+++ b/duy/Lookup_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NHAT DUY\Chuyên ngành\Luận văn tốt nghiệp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78E6FB-F43A-4BEE-B253-4D6BB584AFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ECEF5-72C7-49F8-9E82-1E72DDEA07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Vehicle Speed</t>
   </si>
   <si>
     <t xml:space="preserve">
 Steering Angle</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,24 +400,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C0857A-CD2B-4AB9-BF5A-9307D7E5AD36}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -422,131 +425,253 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>-360</v>
+      </c>
+      <c r="B3">
+        <v>-5.5</v>
+      </c>
+      <c r="C3">
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <v>-6.5</v>
+      </c>
+      <c r="E3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-300</v>
+      </c>
+      <c r="B4">
+        <v>-5.3</v>
+      </c>
+      <c r="C4">
+        <v>-5.6</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-240</v>
+      </c>
+      <c r="B5">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>-5.4</v>
+      </c>
+      <c r="D5">
+        <v>-5.7</v>
+      </c>
+      <c r="E5">
+        <v>-6.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-180</v>
+      </c>
+      <c r="B6">
+        <v>-4.5</v>
+      </c>
+      <c r="C6">
+        <v>-5.2</v>
+      </c>
+      <c r="D6">
+        <v>-5.5</v>
+      </c>
+      <c r="E6">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-120</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-4.7</v>
+      </c>
+      <c r="D7">
+        <v>-5.3</v>
+      </c>
+      <c r="E7">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-60</v>
+      </c>
+      <c r="B8">
+        <v>-3.5</v>
+      </c>
+      <c r="C8">
+        <v>-4.3</v>
+      </c>
+      <c r="D8">
+        <v>-5.2</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-4.5</v>
+      </c>
+      <c r="E9">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+      <c r="E10">
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B11">
         <v>3.5</v>
       </c>
-      <c r="C4">
+      <c r="C11">
+        <v>4.3</v>
+      </c>
+      <c r="D11">
+        <v>5.2</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4.7</v>
+      </c>
+      <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>180</v>
+      </c>
+      <c r="B13">
         <v>4.5</v>
       </c>
-      <c r="D4">
+      <c r="C13">
+        <v>5.2</v>
+      </c>
+      <c r="D13">
         <v>5.5</v>
       </c>
-      <c r="E4">
+      <c r="E13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>240</v>
+      </c>
+      <c r="B14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>5.4</v>
+      </c>
+      <c r="D14">
+        <v>5.7</v>
+      </c>
+      <c r="E14">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>5.3</v>
+      </c>
+      <c r="C15">
+        <v>5.6</v>
+      </c>
+      <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4.8</v>
-      </c>
-      <c r="D5">
-        <v>5.6</v>
-      </c>
-      <c r="E5">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>180</v>
-      </c>
-      <c r="B6">
-        <v>4.5</v>
-      </c>
-      <c r="C6">
-        <v>5.2</v>
-      </c>
-      <c r="D6">
-        <v>5.8</v>
-      </c>
-      <c r="E6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>240</v>
-      </c>
-      <c r="B7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C7">
-        <v>5.4</v>
-      </c>
-      <c r="D7">
-        <v>6.2</v>
-      </c>
-      <c r="E7">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>5.3</v>
-      </c>
-      <c r="C8">
-        <v>5.6</v>
-      </c>
-      <c r="D8">
-        <v>6.4</v>
-      </c>
-      <c r="E8">
+      <c r="E15">
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>360</v>
       </c>
-      <c r="B9">
+      <c r="B16">
         <v>5.5</v>
       </c>
-      <c r="C9">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>6.6</v>
-      </c>
-      <c r="E9">
+      <c r="D16">
+        <v>6.5</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
     </row>

--- a/duy/Lookup_table.xlsx
+++ b/duy/Lookup_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ECEF5-72C7-49F8-9E82-1E72DDEA07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73875158-4F0D-4D3E-AB62-1CB4536FE6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
   </bookViews>
@@ -52,9 +52,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,10 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,7 +413,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,10 +422,13 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -436,53 +449,53 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <v>-4.5</v>
+      </c>
+      <c r="E3">
         <v>-5.5</v>
-      </c>
-      <c r="C3">
-        <v>-6</v>
-      </c>
-      <c r="D3">
-        <v>-6.5</v>
-      </c>
-      <c r="E3">
-        <v>-7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-300</v>
+        <v>-60</v>
       </c>
       <c r="B4">
-        <v>-5.3</v>
+        <v>-3.5</v>
       </c>
       <c r="C4">
-        <v>-5.6</v>
+        <v>-4.3</v>
       </c>
       <c r="D4">
-        <v>-6</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="E4">
-        <v>-6.8</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-240</v>
+        <v>-120</v>
       </c>
       <c r="B5">
-        <v>-4.9000000000000004</v>
+        <v>-4</v>
       </c>
       <c r="C5">
-        <v>-5.4</v>
+        <v>-4.7</v>
       </c>
       <c r="D5">
-        <v>-5.7</v>
+        <v>-5.2</v>
       </c>
       <c r="E5">
-        <v>-6.6</v>
+        <v>-6.1</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -496,7 +509,7 @@
         <v>-4.5</v>
       </c>
       <c r="C6">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="D6">
         <v>-5.5</v>
@@ -507,53 +520,53 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-120</v>
+        <v>-240</v>
       </c>
       <c r="B7">
-        <v>-4</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="C7">
-        <v>-4.7</v>
+        <v>-5.4</v>
       </c>
       <c r="D7">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="E7">
-        <v>-6.2</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-60</v>
+        <v>-300</v>
       </c>
       <c r="B8">
-        <v>-3.5</v>
+        <v>-5.3</v>
       </c>
       <c r="C8">
-        <v>-4.3</v>
+        <v>-5.7</v>
       </c>
       <c r="D8">
-        <v>-5.2</v>
+        <v>-6.1</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="B9">
-        <v>-3</v>
+        <v>-5.6</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D9">
-        <v>-4.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E9">
-        <v>-5.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,10 +597,10 @@
         <v>4.3</v>
       </c>
       <c r="D11">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,10 +614,10 @@
         <v>4.7</v>
       </c>
       <c r="D12">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E12">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -615,7 +628,7 @@
         <v>4.5</v>
       </c>
       <c r="C13">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5.5</v>
@@ -635,7 +648,7 @@
         <v>5.4</v>
       </c>
       <c r="D14">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="E14">
         <v>6.6</v>
@@ -649,10 +662,10 @@
         <v>5.3</v>
       </c>
       <c r="C15">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E15">
         <v>6.8</v>
@@ -663,7 +676,7 @@
         <v>360</v>
       </c>
       <c r="B16">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -676,6 +689,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/duy/Lookup_table.xlsx
+++ b/duy/Lookup_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73875158-4F0D-4D3E-AB62-1CB4536FE6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3E098-6F0E-4F3E-A6F2-E28F97E91BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Vehicle Speed</t>
   </si>
   <si>
     <t xml:space="preserve">
 Steering Angle</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -410,19 +407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C0857A-CD2B-4AB9-BF5A-9307D7E5AD36}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,7 +427,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,61 +444,58 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="B3">
-        <v>-3</v>
+        <v>-5.6</v>
       </c>
       <c r="C3">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D3">
-        <v>-4.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E3">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-60</v>
+        <v>-300</v>
       </c>
       <c r="B4">
-        <v>-3.5</v>
+        <v>-5.3</v>
       </c>
       <c r="C4">
-        <v>-4.3</v>
+        <v>-5.7</v>
       </c>
       <c r="D4">
+        <v>-6.1</v>
+      </c>
+      <c r="E4">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-240</v>
+      </c>
+      <c r="B5">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="E4">
+      <c r="C5">
+        <v>-5.4</v>
+      </c>
+      <c r="D5">
         <v>-5.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-120</v>
-      </c>
-      <c r="B5">
-        <v>-4</v>
-      </c>
-      <c r="C5">
-        <v>-4.7</v>
-      </c>
-      <c r="D5">
-        <v>-5.2</v>
-      </c>
       <c r="E5">
-        <v>-6.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-180</v>
       </c>
@@ -518,58 +512,58 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-240</v>
+        <v>-120</v>
       </c>
       <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-4.7</v>
+      </c>
+      <c r="D7">
+        <v>-5.2</v>
+      </c>
+      <c r="E7">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-60</v>
+      </c>
+      <c r="B8">
+        <v>-3.5</v>
+      </c>
+      <c r="C8">
+        <v>-4.3</v>
+      </c>
+      <c r="D8">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="C7">
-        <v>-5.4</v>
-      </c>
-      <c r="D7">
+      <c r="E8">
         <v>-5.8</v>
       </c>
-      <c r="E7">
-        <v>-6.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-300</v>
-      </c>
-      <c r="B8">
-        <v>-5.3</v>
-      </c>
-      <c r="C8">
-        <v>-5.7</v>
-      </c>
-      <c r="D8">
-        <v>-6.1</v>
-      </c>
-      <c r="E8">
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-5.6</v>
+        <v>-3</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D9">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -586,7 +580,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -603,7 +597,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -620,7 +614,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>180</v>
       </c>
@@ -637,7 +631,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>240</v>
       </c>
@@ -654,7 +648,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
@@ -671,7 +665,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>360</v>
       </c>

--- a/duy/Lookup_table.xlsx
+++ b/duy/Lookup_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3E098-6F0E-4F3E-A6F2-E28F97E91BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3E43F-36A3-481B-B35A-DA37173EC83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EA83075B-5EB1-486F-8951-268158337561}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -407,19 +407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C0857A-CD2B-4AB9-BF5A-9307D7E5AD36}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,242 +444,434 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>-5.6</v>
+        <f xml:space="preserve"> 3</f>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>-6.5</v>
+        <v>4.5</v>
       </c>
       <c r="E3">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="H3">
+        <f>B3-2</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>C3-2</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>D3-2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K3">
+        <f>E3-2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-300</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>-5.3</v>
+        <v>3.5</v>
       </c>
       <c r="C4">
-        <v>-5.7</v>
+        <v>4.3</v>
       </c>
       <c r="D4">
-        <v>-6.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E4">
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I15" si="0">B4-2</f>
+        <v>1.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J15" si="1">D4-2</f>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K15" si="2">E4-2</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-240</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>-4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>-5.4</v>
+        <v>4.7</v>
       </c>
       <c r="D5">
-        <v>-5.8</v>
+        <v>5.2</v>
       </c>
       <c r="E5">
-        <v>-6.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="B6">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
-        <v>-6.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-120</v>
+        <v>240</v>
       </c>
       <c r="B7">
-        <v>-4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C7">
-        <v>-4.7</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>-5.2</v>
+        <v>5.8</v>
       </c>
       <c r="E7">
-        <v>-6.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-60</v>
+        <v>300</v>
       </c>
       <c r="B8">
-        <v>-3.5</v>
+        <v>5.3</v>
       </c>
       <c r="C8">
-        <v>-4.3</v>
+        <v>5.7</v>
       </c>
       <c r="D8">
-        <v>-4.9000000000000004</v>
+        <v>6.1</v>
       </c>
       <c r="E8">
-        <v>-5.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="B9">
-        <v>-3</v>
+        <v>5.6</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>-4.5</v>
+        <v>6.5</v>
       </c>
       <c r="E9">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="C10">
+        <v>6.1</v>
+      </c>
+      <c r="D10">
+        <v>6.6</v>
+      </c>
+      <c r="E10">
+        <v>7.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>480</v>
+      </c>
+      <c r="B11">
+        <v>5.8</v>
+      </c>
+      <c r="C11">
+        <v>6.2</v>
+      </c>
+      <c r="D11">
+        <v>6.7</v>
+      </c>
+      <c r="E11">
+        <v>7.2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>540</v>
+      </c>
+      <c r="B12">
+        <v>5.9</v>
+      </c>
+      <c r="C12">
+        <v>6.3</v>
+      </c>
+      <c r="D12">
+        <v>6.8</v>
+      </c>
+      <c r="E12">
+        <v>7.3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+      <c r="D13">
+        <v>6.9</v>
+      </c>
+      <c r="E13">
+        <v>7.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>660</v>
+      </c>
+      <c r="B14">
+        <v>6.1</v>
+      </c>
+      <c r="C14">
+        <v>6.5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E10">
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>3.5</v>
-      </c>
-      <c r="C11">
-        <v>4.3</v>
-      </c>
-      <c r="D11">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E11">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4.7</v>
-      </c>
-      <c r="D12">
-        <v>5.2</v>
-      </c>
-      <c r="E12">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>180</v>
-      </c>
-      <c r="B13">
-        <v>4.5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5.5</v>
-      </c>
-      <c r="E13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>240</v>
-      </c>
-      <c r="B14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C14">
-        <v>5.4</v>
-      </c>
-      <c r="D14">
-        <v>5.8</v>
-      </c>
-      <c r="E14">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>720</v>
+      </c>
+      <c r="B15">
+        <v>6.2</v>
+      </c>
+      <c r="C15">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>300</v>
-      </c>
-      <c r="B15">
-        <v>5.3</v>
-      </c>
-      <c r="C15">
-        <v>5.7</v>
-      </c>
       <c r="D15">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="E15">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>360</v>
-      </c>
-      <c r="B16">
+        <v>7.6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
         <v>5.6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>6.5</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
